--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama1-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama1-Itga7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Lama1</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>1.676215</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.676435666666666</v>
+        <v>2.035934</v>
       </c>
       <c r="N2">
-        <v>11.029307</v>
+        <v>6.107802</v>
       </c>
       <c r="O2">
-        <v>0.05596928005870617</v>
+        <v>0.03126880699186227</v>
       </c>
       <c r="P2">
-        <v>0.07888124434163157</v>
+        <v>0.04430738339814538</v>
       </c>
       <c r="Q2">
-        <v>2.054165537000555</v>
+        <v>1.137554369936667</v>
       </c>
       <c r="R2">
-        <v>18.487489833005</v>
+        <v>10.23798932943</v>
       </c>
       <c r="S2">
-        <v>0.05596928005870617</v>
+        <v>0.02653710144882515</v>
       </c>
       <c r="T2">
-        <v>0.07888124434163157</v>
+        <v>0.03960011061923364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>1.676215</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>11.384767</v>
       </c>
       <c r="O3">
-        <v>0.05777309604548284</v>
+        <v>0.0582841555718936</v>
       </c>
       <c r="P3">
-        <v>0.08142348268114614</v>
+        <v>0.08258768643246023</v>
       </c>
       <c r="Q3">
         <v>2.120368579656111</v>
@@ -638,10 +638,10 @@
         <v>19.083317216905</v>
       </c>
       <c r="S3">
-        <v>0.05777309604548284</v>
+        <v>0.04946439273084438</v>
       </c>
       <c r="T3">
-        <v>0.08142348268114614</v>
+        <v>0.0738134655599839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,10 +670,10 @@
         <v>1.676215</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.477427</v>
+        <v>0.451002</v>
       </c>
       <c r="N4">
-        <v>1.432281</v>
+        <v>1.353006</v>
       </c>
       <c r="O4">
-        <v>0.007268247806663079</v>
+        <v>0.006926695310822388</v>
       </c>
       <c r="P4">
-        <v>0.01024362704990227</v>
+        <v>0.009815012926416261</v>
       </c>
       <c r="Q4">
-        <v>0.2667567662683333</v>
+        <v>0.25199210581</v>
       </c>
       <c r="R4">
-        <v>2.400810896415</v>
+        <v>2.26792895229</v>
       </c>
       <c r="S4">
-        <v>0.007268247806663079</v>
+        <v>0.005878523482403183</v>
       </c>
       <c r="T4">
-        <v>0.01024362704990227</v>
+        <v>0.008772253466711403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>1.676215</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.23834600000001</v>
+        <v>57.4814495</v>
       </c>
       <c r="N5">
-        <v>114.476692</v>
+        <v>114.962899</v>
       </c>
       <c r="O5">
-        <v>0.8713844897157522</v>
+        <v>0.8828264325012393</v>
       </c>
       <c r="P5">
-        <v>0.8187335716626351</v>
+        <v>0.8339669888701803</v>
       </c>
       <c r="Q5">
-        <v>31.98125804679667</v>
+        <v>32.11708929121416</v>
       </c>
       <c r="R5">
-        <v>191.88754828078</v>
+        <v>192.702535747285</v>
       </c>
       <c r="S5">
-        <v>0.8713844897157522</v>
+        <v>0.7492340403996494</v>
       </c>
       <c r="T5">
-        <v>0.8187335716626351</v>
+        <v>0.7453652750216503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>1.676215</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.8486764927018626</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.8937587278261895</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4995396666666667</v>
+        <v>1.347395</v>
       </c>
       <c r="N6">
-        <v>1.498619</v>
+        <v>4.042185</v>
       </c>
       <c r="O6">
-        <v>0.007604886373395734</v>
+        <v>0.02069390962418245</v>
       </c>
       <c r="P6">
-        <v>0.01071807426468513</v>
+        <v>0.02932292837279799</v>
       </c>
       <c r="Q6">
-        <v>0.2791119607872222</v>
+        <v>0.7528412366416666</v>
       </c>
       <c r="R6">
-        <v>2.512007647085</v>
+        <v>6.775571129775</v>
       </c>
       <c r="S6">
-        <v>0.007604886373395734</v>
+        <v>0.01756243464014048</v>
       </c>
       <c r="T6">
-        <v>0.01071807426468513</v>
+        <v>0.02620762315861041</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.199252</v>
+      </c>
+      <c r="I7">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J7">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.035934</v>
+      </c>
+      <c r="N7">
+        <v>6.107802</v>
+      </c>
+      <c r="O7">
+        <v>0.03126880699186227</v>
+      </c>
+      <c r="P7">
+        <v>0.04430738339814538</v>
+      </c>
+      <c r="Q7">
+        <v>0.2028319606839999</v>
+      </c>
+      <c r="R7">
+        <v>1.216991764104</v>
+      </c>
+      <c r="S7">
+        <v>0.004731705543037118</v>
+      </c>
+      <c r="T7">
+        <v>0.00470727277891174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.199252</v>
+      </c>
+      <c r="I8">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J8">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.794922333333334</v>
+      </c>
+      <c r="N8">
+        <v>11.384767</v>
+      </c>
+      <c r="O8">
+        <v>0.0582841555718936</v>
+      </c>
+      <c r="P8">
+        <v>0.08258768643246023</v>
+      </c>
+      <c r="Q8">
+        <v>0.3780729323806666</v>
+      </c>
+      <c r="R8">
+        <v>2.268437594284</v>
+      </c>
+      <c r="S8">
+        <v>0.008819762841049213</v>
+      </c>
+      <c r="T8">
+        <v>0.00877422087247633</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.199252</v>
+      </c>
+      <c r="I9">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J9">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.451002</v>
+      </c>
+      <c r="N9">
+        <v>1.353006</v>
+      </c>
+      <c r="O9">
+        <v>0.006926695310822388</v>
+      </c>
+      <c r="P9">
+        <v>0.009815012926416261</v>
+      </c>
+      <c r="Q9">
+        <v>0.04493152525199999</v>
+      </c>
+      <c r="R9">
+        <v>0.269589151512</v>
+      </c>
+      <c r="S9">
+        <v>0.001048171828419205</v>
+      </c>
+      <c r="T9">
+        <v>0.001042759459704859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.199252</v>
+      </c>
+      <c r="I10">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J10">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>57.4814495</v>
+      </c>
+      <c r="N10">
+        <v>114.962899</v>
+      </c>
+      <c r="O10">
+        <v>0.8828264325012393</v>
+      </c>
+      <c r="P10">
+        <v>0.8339669888701803</v>
+      </c>
+      <c r="Q10">
+        <v>5.726646887886999</v>
+      </c>
+      <c r="R10">
+        <v>22.906587551548</v>
+      </c>
+      <c r="S10">
+        <v>0.1335923921015898</v>
+      </c>
+      <c r="T10">
+        <v>0.08860171384853008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.09962599999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.199252</v>
+      </c>
+      <c r="I11">
+        <v>0.1513235072981373</v>
+      </c>
+      <c r="J11">
+        <v>0.1062412721738106</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.347395</v>
+      </c>
+      <c r="N11">
+        <v>4.042185</v>
+      </c>
+      <c r="O11">
+        <v>0.02069390962418245</v>
+      </c>
+      <c r="P11">
+        <v>0.02932292837279799</v>
+      </c>
+      <c r="Q11">
+        <v>0.13423557427</v>
+      </c>
+      <c r="R11">
+        <v>0.8054134456199999</v>
+      </c>
+      <c r="S11">
+        <v>0.003131474984041967</v>
+      </c>
+      <c r="T11">
+        <v>0.003115305214187584</v>
       </c>
     </row>
   </sheetData>
